--- a/biology/Zoologie/Cyrtarachne/Cyrtarachne.xlsx
+++ b/biology/Zoologie/Cyrtarachne/Cyrtarachne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtarachne est un genre d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtarachne est un genre d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Océanie, en Afrique et en Europe du Sud[1].
-Ce genre couvre un vaste domaine qui s'étend de l'Ouest de la zone paléarctique et de l'Ouest africain au Japon, à la Polynésie et à l'Australie. La plupart des espèces du genre sont indo-malaises, cette région semblant être le berceau de la sous-famille qui a gagné l'Afrique mais qui n'a jamais atteint le continent américain[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Océanie, en Afrique et en Europe du Sud.
+Ce genre couvre un vaste domaine qui s'étend de l'Ouest de la zone paléarctique et de l'Ouest africain au Japon, à la Polynésie et à l'Australie. La plupart des espèces du genre sont indo-malaises, cette région semblant être le berceau de la sous-famille qui a gagné l'Afrique mais qui n'a jamais atteint le continent américain.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Spider Catalog                                (version 23.5, 23/08/2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Spider Catalog                                (version 23.5, 23/08/2022) :
 Cyrtarachne akirai Tanikawa, 2013
 Cyrtarachne avimerdaria Tikader, 1963
 Cyrtarachne bengalensis Tikader, 1961
@@ -628,9 +644,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtogaster Keyserling, 1864, préoccupé par Cyrtogaster Walker, 1833, a été remplacé par Cyrtarachne par Thorell en 1868[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtogaster Keyserling, 1864, préoccupé par Cyrtogaster Walker, 1833, a été remplacé par Cyrtarachne par Thorell en 1868.
 </t>
         </is>
       </c>
@@ -659,7 +677,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Thorell, 1868 : « Araneae. Species novae minusve cognitae. » Kongliga Svenska Fregatten Eugenies Resa omkring Jorden, Uppsala, Zoologi, Arachnida, p. 1-34.</t>
         </is>
